--- a/학습자료/단답형/객관식+단답형_영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/객관식+단답형_영어_유의어_Day03.xlsx
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>extinction</t>
+          <t>extinction*</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>disappearance</t>
+          <t>disappearance*</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>depression</t>
+          <t>depression*</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>우울</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>우울</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -549,7 +549,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
     </row>
@@ -585,14 +585,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>efficiency</t>
+          <t>efficiency*</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>효능</t>
+          <t>효율, 효능</t>
         </is>
       </c>
     </row>
@@ -621,14 +621,14 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>효능</t>
+          <t>효율, 효능</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>caution</t>
+          <t>caution*</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -688,7 +688,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>fix</t>
+          <t>fix*</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
@@ -789,14 +789,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>damage</t>
+          <t>damage*</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>prize</t>
+          <t>prize*</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>소중한 것</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
     </row>
@@ -909,14 +909,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>complication</t>
+          <t>complication*</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -964,7 +964,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>fall on</t>
+          <t>fall on*</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -981,7 +981,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>떨어지다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>떨어지다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
@@ -1053,14 +1053,14 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>call for</t>
+          <t>call for*</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1180,915 +1180,915 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>extinction
+          <t>extinction*
+1. 절멸, 전멸, 소멸
+2. 조심
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>extermination
+1. 손해, 손상
+2. 복잡
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>3, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>annihilation
+1. 요청하다, 요구하다
+2. 절멸, 전멸, 소멸
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>eradication
+1. 절멸, 전멸, 소멸
+2. 효율, 효능
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>disappearance*
+1. 해결책, 곤경
+2. 떨어지다, 습격하다
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>3, 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>depression*
+1. 조심
+2. 효율, 효능
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>3, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>melancholy
+1. 절멸, 전멸, 소멸
+2. 요청하다, 요구하다
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>3, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>dejection
+1. 해결책, 곤경
+2. 요청하다, 요구하다
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>3, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>recession
+1. 조심
+2. 떨어지다, 습격하다
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>3, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>slump
 1. 우울, 불경기
+2. 조심
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>stagnation
+1. 우울, 불경기
+2. 해결책, 곤경
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>downturn
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1, 우울, 불경기</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>efficiency*
+1. 효율, 효능
+2. 조심
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>efficacy
+1. 해결책, 곤경
+2. 효율, 효능
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>potency
+1. 효율, 효능
+2. 상, 소중한 것
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1, 효율, 효능</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>caution*
+1. 손해, 손상
+2. 요청하다, 요구하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>wariness
+1. 조심
+2. 손해, 손상
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>1, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>heed
+1. 효율, 효능
+2. 요청하다, 요구하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>3, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vigilance
+1. 효율, 효능
+2. 조심
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>prudence
+1. 요청하다, 요구하다
+2. 조심
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2, 조심</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>fix*
+1. 절멸, 전멸, 소멸
+2. 해결책, 곤경
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>solution
+1. 해결책, 곤경
+2. 상, 소중한 것
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>1, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>remedy
+1. 상, 소중한 것
+2. 복잡
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>antidote
+1. 해결책, 곤경
+2. 절멸, 전멸, 소멸
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>1, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>answer
+1. 해결책, 곤경
+2. 효율, 효능
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>predicament
+1. 요청하다, 요구하다
+2. 손해, 손상
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>difficulty
+1. 요청하다, 요구하다
+2. 상, 소중한 것
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>3, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>plight
+1. 해결책, 곤경
+2. 요청하다, 요구하다
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>quandary
+1. 떨어지다, 습격하다
+2. 해결책, 곤경
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2, 해결책, 곤경</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>damage*
+1. 떨어지다, 습격하다
+2. 손해, 손상
+3. 절멸, 전멸, 소멸</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>garm
+1. 손해, 손상
+2. 요청하다, 요구하다
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>detriment
+1. 요청하다, 요구하다
+2. 복잡
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>3, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>disfigurement
+1. 떨어지다, 습격하다
+2. 손해, 손상
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mischief
+1. 손해, 손상
+2. 효율, 효능
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>1, 손해, 손상</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>prize*
+1. 상, 소중한 것
+2. 효율, 효능
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>1, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>award
+1. 절멸, 전멸, 소멸
+2. 상, 소중한 것
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>reward
+1. 해결책, 곤경
+2. 상, 소중한 것
+3. 우울, 불경기</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>treasure
+1. 복잡
+2. 우울, 불경기
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>3, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>accolade
+1. 상, 소중한 것
+2. 우울, 불경기
+3. 해결책, 곤경</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>1, 상, 소중한 것</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>complication*
+1. 절멸, 전멸, 소멸
+2. 조심
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>3, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>complexity
+1. 복잡
+2. 조심
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>intricacy
+1. 복잡
+2. 요청하다, 요구하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>involution
+1. 해결책, 곤경
+2. 복잡
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2, 복잡</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>fall on*
+1. 복잡
+2. 떨어지다, 습격하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>fall from
+1. 요청하다, 요구하다
+2. 떨어지다, 습격하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>come off
+1. 효율, 효능
+2. 떨어지다, 습격하다
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>pitch
+1. 상, 소중한 것
+2. 떨어지다, 습격하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>chop upon
+1. 조심
+2. 우울, 불경기
+3. 떨어지다, 습격하다</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>3, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>attack
+1. 떨어지다, 습격하다
+2. 우울, 불경기
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>assault
+1. 우울, 불경기
+2. 떨어지다, 습격하다
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>assail
+1. 떨어지다, 습격하다
+2. 절멸, 전멸, 소멸
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1, 떨어지다, 습격하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>call for*
+1. 떨어지다, 습격하다
+2. 요청하다, 요구하다
+3. 손해, 손상</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>call on
+1. 조심
+2. 복잡
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>ask for
+1. 요청하다, 요구하다
+2. 해결책, 곤경
+3. 상, 소중한 것</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>put in for
+1. 떨어지다, 습격하다
+2. 상, 소중한 것
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>summon
+1. 떨어지다, 습격하다
+2. 요청하다, 요구하다
+3. 조심</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>necessitate
+1. 해결책, 곤경
+2. 요청하다, 요구하다
+3. 효율, 효능</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>2, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>demand
+1. 떨어지다, 습격하다
+2. 효율, 효능
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>stipulate
+1. 요청하다, 요구하다
+2. 해결책, 곤경
+3. 복잡</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>enjoin
+1. 상, 소중한 것
+2. 떨어지다, 습격하다
+3. 요청하다, 요구하다</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>3, 요청하다, 요구하다</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>require
+1. 조심
 2. 요청하다, 요구하다
 3. 절멸, 전멸, 소멸</t>
         </is>
       </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>extermination
-1. 해결책, 곤경
-2. 해결책
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>annihilation
-1. 절멸, 전멸, 소멸
-2. 우울, 불경기
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>eradication
-1. 습격하다
-2. 절멸, 전멸, 소멸
-3. 소중한 것</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>disappearance
-1. 효능
-2. 습격하다
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>3, 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>depression
-1. 해결책, 곤경
-2. 떨어지다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>3, 우울, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>melancholy
-1. 해결책, 곤경
-2. 해결책
-3. 우울</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>3, 우울</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>dejection
-1. 우울
-2. 상, 소중한 것
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1, 우울</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>recession
-1. 불경기
-2. 해결책, 곤경
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>slump
-1. 불경기
-2. 상, 소중한 것
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>stagnation
-1. 효능
-2. 요청하다, 요구하다
-3. 불경기</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>3, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>downturn
-1. 효능
-2. 불경기
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2, 불경기</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>efficiency
-1. 효율, 효능
-2. 우울
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>1, 효율, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>efficacy
-1. 떨어지다, 습격하다
-2. 효능
-3. 해결책</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>potency
-1. 상, 소중한 것
-2. 곤경
-3. 효능</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>3, 효능</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>caution
-1. 조심
-2. 해결책, 곤경
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>wariness
-1. 복잡
-2. 상
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>heed
-1. 조심
-2. 소중한 것
-3. 효능</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>1, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>vigilance
-1. 요청하다, 요구하다
-2. 습격하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>prudence
-1. 소중한 것
-2. 불경기
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>3, 조심</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>fix
-1. 복잡
-2. 절멸, 전멸, 소멸
-3. 해결책, 곤경</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>3, 해결책, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>solution
-1. 떨어지다, 습격하다
-2. 상
-3. 해결책</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>3, 해결책</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>remedy
-1. 소중한 것
-2. 해결책
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2, 해결책</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>antidote
-1. 조심
-2. 해결책
-3. 상</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2, 해결책</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>answer
-1. 해결책
-2. 우울
-3. 불경기</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1, 해결책</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>predicament
-1. 곤경
-2. 떨어지다
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>difficulty
-1. 습격하다
-2. 곤경
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>plight
-1. 절멸, 전멸, 소멸
-2. 조심
-3. 곤경</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>3, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>quandary
-1. 곤경
-2. 불경기
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1, 곤경</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>damage
-1. 떨어지다, 습격하다
-2. 해결책, 곤경
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>3, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>garm
-1. 손해, 손상
-2. 효능
-3. 떨어지다</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>1, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>detriment
-1. 손해, 손상
-2. 떨어지다
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>1, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>disfigurement
-1. 효능
-2. 손해, 손상
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>mischief
-1. 상
-2. 손해, 손상
-3. 상, 소중한 것</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2, 손해, 손상</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>prize
-1. 상, 소중한 것
-2. 효율, 효능
-3. 절멸, 전멸, 소멸</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>1, 상, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>award
-1. 불경기
-2. 해결책
-3. 상</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>3, 상</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>reward
-1. 우울, 불경기
-2. 상
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2, 상</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>treasure
-1. 요청하다, 요구하다
-2. 떨어지다, 습격하다
-3. 소중한 것</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>3, 소중한 것</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>accolade
-1. 우울, 불경기
-2. 절멸, 전멸, 소멸
-3. 상</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>3, 상</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>complication
-1. 복잡
-2. 해결책
-3. 곤경</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>complexity
-1. 복잡
-2. 우울, 불경기
-3. 해결책</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>1, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>intricacy
-1. 소중한 것
-2. 복잡
-3. 우울</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>involution
-1. 효능
-2. 조심
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>3, 복잡</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>fall on
-1. 곤경
-2. 떨어지다, 습격하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2, 떨어지다, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>fall from
-1. 떨어지다
-2. 효능
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>1, 떨어지다</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>come off
-1. 상, 소중한 것
-2. 요청하다, 요구하다
-3. 떨어지다</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>3, 떨어지다</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>pitch
-1. 해결책, 곤경
-2. 습격하다
-3. 상</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>chop upon
-1. 습격하다
-2. 요청하다, 요구하다
-3. 조심</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>1, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>attack
-1. 절멸, 전멸, 소멸
-2. 조심
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>3, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>assault
-1. 손해, 손상
-2. 습격하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>assail
-1. 우울
-2. 습격하다
-3. 불경기</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2, 습격하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>call for
-1. 습격하다
-2. 떨어지다, 습격하다
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>call on
-1. 효율, 효능
-2. 요청하다, 요구하다
-3. 우울, 불경기</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
+      <c r="B123" t="inlineStr">
         <is>
           <t>2, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>ask for
-1. 조심
-2. 상
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>put in for
-1. 조심
-2. 요청하다, 요구하다
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>summon
-1. 요청하다, 요구하다
-2. 떨어지다
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>necessitate
-1. 요청하다, 요구하다
-2. 습격하다
-3. 효율, 효능</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>demand
-1. 요청하다, 요구하다
-2. 소중한 것
-3. 습격하다</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>stipulate
-1. 요청하다, 요구하다
-2. 상
-3. 손해, 손상</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>enjoin
-1. 요청하다, 요구하다
-2. 손해, 손상
-3. 복잡</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>1, 요청하다, 요구하다</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>require
-1. 복잡
-2. 곤경
-3. 요청하다, 요구하다</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>3, 요청하다, 요구하다</t>
         </is>
       </c>
     </row>
